--- a/DDAf_2023_Tableau_annexe_Tab17.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -2067,7 +2067,7 @@
         <v>-228.1668965973</v>
       </c>
       <c r="L18" s="12">
-        <v>990.54610620236804</v>
+        <v>990.54610620226799</v>
       </c>
       <c r="M18" s="12">
         <v>-738.69716056694006</v>
@@ -2495,7 +2495,7 @@
         <v>20.2959306669051</v>
       </c>
       <c r="H28" s="20">
-        <v>11.4080202396194</v>
+        <v>11.4080202296194</v>
       </c>
       <c r="I28" s="19">
         <v>88.178834744133297</v>
@@ -3211,7 +3211,7 @@
         <v>0.67052786813360998</v>
       </c>
       <c r="L44" s="19">
-        <v>-49.587202304350001</v>
+        <v>-49.58720220435</v>
       </c>
       <c r="M44" s="19">
         <v>109.237887470245</v>

--- a/DDAf_2023_Tableau_annexe_Tab17.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91700BB3-1152-448D-B3B7-D70A1FABB58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C07E1A06-C201-4221-B3B5-0B812BD72BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{6B112A89-AE1C-4053-8E02-0EA21C3A88CB}"/>
+    <workbookView xWindow="29370" yWindow="570" windowWidth="17280" windowHeight="15075" xr2:uid="{A087969A-138C-4790-A478-8D76F8AB8CE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -1368,7 +1368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186462B6-EEC3-4B6A-A480-B30F5442D81B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C103F675-871A-4177-BD2F-1B0C77916C07}">
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1647,7 +1647,7 @@
         <v>2941.5715850000001</v>
       </c>
       <c r="J9" s="21">
-        <v>5960.5217359999997</v>
+        <v>5960.5217360000097</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1679,7 +1679,7 @@
         <v>33675.417873999999</v>
       </c>
       <c r="J10" s="21">
-        <v>96981.941963000005</v>
+        <v>96981.941962999903</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1743,7 +1743,7 @@
         <v>2213.9129840000001</v>
       </c>
       <c r="J12" s="21">
-        <v>7385.9941950000102</v>
+        <v>7385.9941950000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1967,7 +1967,7 @@
         <v>3265.0121690000001</v>
       </c>
       <c r="J19" s="17">
-        <v>9364.2002699999994</v>
+        <v>9364.2002699999903</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -2159,7 +2159,7 @@
         <v>1952.0159880000001</v>
       </c>
       <c r="J25" s="21">
-        <v>8272.7936960000097</v>
+        <v>8272.7936960000006</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -3183,7 +3183,7 @@
         <v>20783.763923999999</v>
       </c>
       <c r="J57" s="30">
-        <v>61355.482190000002</v>
+        <v>61355.482190000097</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
@@ -4622,11 +4622,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{27FF57C5-2954-46B6-8A88-D1C3EA4E98BC}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{99E58436-C562-4A82-B868-4DC99D25E8C4}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{2460EE5E-FF2F-4784-BE1A-9B13A728A56C}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{86D32E25-D497-4328-9CA0-CC8DB62F3727}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{4466F2BC-8550-4E8A-8909-136171F0C06C}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{7C66D9F7-14C2-4C98-915D-36472C1A996B}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{620AC493-E20F-4F02-A2C5-8D78B5CC96B4}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{76BC981F-1AB5-4631-A4CC-B1B39DC93C65}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{EA9962A0-AAE3-4A02-A252-460E51AE3291}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{1901F199-C813-490E-BE4F-28CDA14364B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab17.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C07E1A06-C201-4221-B3B5-0B812BD72BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91BCB0D1-D65D-4AD9-80BE-01FEE9204EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29370" yWindow="570" windowWidth="17280" windowHeight="15075" xr2:uid="{A087969A-138C-4790-A478-8D76F8AB8CE0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{07AB41E9-4081-47A3-B656-D01F1EDD9521}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab17'!$A$1:$F$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -257,7 +257,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -335,7 +335,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -389,7 +389,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -533,7 +533,7 @@
     <t>Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données.</t>
   </si>
   <si>
-    <t>Source : Calculs de l'auteur basés sur la BACI (Base de données sur le commerce international) rapportée au niveau des produits par CEPII (mise à jour le 21 avril 2022).</t>
+    <t>Source : Calculs de l'auteur basés sur la BACI (Base de données sur le commerce international) rapportée au niveau des produits par CEPII (mise à jour le 01/02/2023).</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1368,7 +1368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C103F675-871A-4177-BD2F-1B0C77916C07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DDDAB4-64DB-4AD8-9663-1AB211689E44}">
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -2422,31 +2422,31 @@
       <c r="A34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="28">
         <v>473.14373399999999</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="29">
         <v>88.64573</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="29">
         <v>2.031558</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="30">
         <v>563.82102199999997</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="28">
         <v>73.6155550000001</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="29">
         <v>335.12306999999998</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="29">
         <v>461.00037600000002</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="30">
         <v>869.73900100000003</v>
       </c>
     </row>
@@ -3158,31 +3158,31 @@
       <c r="A57" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="19">
         <v>45169.847285000003</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="20">
         <v>2630.4644669999998</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="20">
         <v>9780.8453370000007</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F57" s="21">
         <v>57581.157089</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="19">
         <v>4176.9788349999999</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="20">
         <v>36394.739431000002</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="20">
         <v>20783.763923999999</v>
       </c>
-      <c r="J57" s="30">
+      <c r="J57" s="21">
         <v>61355.482190000097</v>
       </c>
     </row>
@@ -3528,28 +3528,28 @@
         <v>132</v>
       </c>
       <c r="C69" s="43">
-        <v>7358.1747779999996</v>
+        <v>9418.9951000000001</v>
       </c>
       <c r="D69" s="44">
-        <v>11373.86685</v>
+        <v>26069.420524000001</v>
       </c>
       <c r="E69" s="44">
-        <v>2867.5601969999998</v>
+        <v>2891.4281030000002</v>
       </c>
       <c r="F69" s="45">
-        <v>21599.601825000002</v>
+        <v>38379.843726999999</v>
       </c>
       <c r="G69" s="43">
-        <v>2432.9193740000001</v>
+        <v>2980.318072</v>
       </c>
       <c r="H69" s="44">
-        <v>29662.399249999999</v>
+        <v>35214.188652999997</v>
       </c>
       <c r="I69" s="44">
-        <v>16736.425480999998</v>
+        <v>20001.43765</v>
       </c>
       <c r="J69" s="45">
-        <v>48831.744104999998</v>
+        <v>58195.944374999999</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -3768,28 +3768,28 @@
         <v>139</v>
       </c>
       <c r="C77" s="43">
-        <v>297486.90285299998</v>
+        <v>295928.30973899999</v>
       </c>
       <c r="D77" s="44">
-        <v>272295.33759100002</v>
+        <v>270682.92193999997</v>
       </c>
       <c r="E77" s="44">
-        <v>53619.144651000002</v>
+        <v>53585.117163000003</v>
       </c>
       <c r="F77" s="45">
-        <v>623401.38509500003</v>
+        <v>620196.34884200001</v>
       </c>
       <c r="G77" s="43">
-        <v>43299.050404000001</v>
+        <v>42614.062790999997</v>
       </c>
       <c r="H77" s="44">
-        <v>320916.69474800001</v>
+        <v>316869.34749100002</v>
       </c>
       <c r="I77" s="44">
-        <v>189285.08664299999</v>
+        <v>186966.86866899999</v>
       </c>
       <c r="J77" s="45">
-        <v>553500.83179500001</v>
+        <v>546450.27895099996</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -3858,28 +3858,28 @@
         <v>141</v>
       </c>
       <c r="C80" s="51">
-        <v>138750.11364299999</v>
+        <v>94053.410092000006</v>
       </c>
       <c r="D80" s="52">
-        <v>22400.089081999999</v>
+        <v>19858.270345000001</v>
       </c>
       <c r="E80" s="52">
-        <v>21929.862343000001</v>
+        <v>12151.048564000001</v>
       </c>
       <c r="F80" s="53">
-        <v>183080.065068</v>
+        <v>126062.729001</v>
       </c>
       <c r="G80" s="51">
-        <v>12923.330802</v>
+        <v>8819.9675220000099</v>
       </c>
       <c r="H80" s="52">
-        <v>79623.637537999995</v>
+        <v>43564.021177000002</v>
       </c>
       <c r="I80" s="52">
-        <v>45520.109471000003</v>
+        <v>25197.345923000001</v>
       </c>
       <c r="J80" s="53">
-        <v>138067.077811</v>
+        <v>77581.334621999995</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
@@ -3918,28 +3918,28 @@
         <v>143</v>
       </c>
       <c r="C82" s="43">
-        <v>112997.261314</v>
+        <v>157693.96486499999</v>
       </c>
       <c r="D82" s="44">
-        <v>251298.94870000001</v>
+        <v>253840.767437</v>
       </c>
       <c r="E82" s="44">
-        <v>65543.582901999995</v>
+        <v>75322.396680999998</v>
       </c>
       <c r="F82" s="45">
-        <v>429839.79291600001</v>
+        <v>486857.128983</v>
       </c>
       <c r="G82" s="43">
-        <v>58513.288569999997</v>
+        <v>62616.651850000002</v>
       </c>
       <c r="H82" s="44">
-        <v>305088.672785</v>
+        <v>341148.289146</v>
       </c>
       <c r="I82" s="44">
-        <v>175597.39592099999</v>
+        <v>195920.15946900001</v>
       </c>
       <c r="J82" s="45">
-        <v>539199.35727599997</v>
+        <v>599685.10046500002</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3978,28 +3978,28 @@
         <v>145</v>
       </c>
       <c r="C84" s="51">
-        <v>24921.180699</v>
+        <v>25824.748020999999</v>
       </c>
       <c r="D84" s="52">
-        <v>57993.647730999997</v>
+        <v>70066.253211000003</v>
       </c>
       <c r="E84" s="52">
-        <v>4048.848853</v>
+        <v>4474.529149</v>
       </c>
       <c r="F84" s="53">
-        <v>86963.677282999997</v>
+        <v>100365.530381</v>
       </c>
       <c r="G84" s="51">
-        <v>8291.2213940000001</v>
+        <v>8770.2163909999999</v>
       </c>
       <c r="H84" s="52">
-        <v>64040.279282000003</v>
+        <v>68442.571150999996</v>
       </c>
       <c r="I84" s="52">
-        <v>44612.765802000002</v>
+        <v>46829.306573000002</v>
       </c>
       <c r="J84" s="53">
-        <v>116944.26647800001</v>
+        <v>124042.094115</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -4038,28 +4038,28 @@
         <v>147</v>
       </c>
       <c r="C86" s="43">
-        <v>145814.43778499999</v>
+        <v>144910.870463</v>
       </c>
       <c r="D86" s="44">
-        <v>121585.95243200001</v>
+        <v>109513.34695200001</v>
       </c>
       <c r="E86" s="44">
-        <v>56294.926534999999</v>
+        <v>55869.246239</v>
       </c>
       <c r="F86" s="45">
-        <v>323695.31675200001</v>
+        <v>310293.46365400002</v>
       </c>
       <c r="G86" s="43">
-        <v>48502.395496999998</v>
+        <v>48023.400500000003</v>
       </c>
       <c r="H86" s="44">
-        <v>244746.123632</v>
+        <v>240343.83176299999</v>
       </c>
       <c r="I86" s="44">
-        <v>127674.09292900001</v>
+        <v>125457.55215800001</v>
       </c>
       <c r="J86" s="45">
-        <v>420922.612058</v>
+        <v>413824.78442099999</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -4068,28 +4068,28 @@
         <v>148</v>
       </c>
       <c r="C87" s="43">
-        <v>193016.73742600001</v>
+        <v>194470.135392</v>
       </c>
       <c r="D87" s="44">
-        <v>732196.88817499997</v>
+        <v>733783.27934000001</v>
       </c>
       <c r="E87" s="44">
-        <v>495382.47211099998</v>
+        <v>496735.95795900002</v>
       </c>
       <c r="F87" s="45">
-        <v>1420596.0977119999</v>
+        <v>1424989.3726910001</v>
       </c>
       <c r="G87" s="43">
-        <v>295632.95171400002</v>
+        <v>297241.19151500001</v>
       </c>
       <c r="H87" s="44">
-        <v>1015611.667615</v>
+        <v>1025532.624169</v>
       </c>
       <c r="I87" s="44">
-        <v>402936.672976</v>
+        <v>406270.978947</v>
       </c>
       <c r="J87" s="45">
-        <v>1714181.2923049999</v>
+        <v>1729044.7946309999</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -4128,28 +4128,28 @@
         <v>150</v>
       </c>
       <c r="C89" s="43">
-        <v>758564.33588599996</v>
+        <v>743843.44721000001</v>
       </c>
       <c r="D89" s="44">
-        <v>2967177.902032</v>
+        <v>2914501.4640489998</v>
       </c>
       <c r="E89" s="44">
-        <v>2387920.0689050001</v>
+        <v>2353369.6726939999</v>
       </c>
       <c r="F89" s="45">
-        <v>6113662.3068230003</v>
+        <v>6011714.5839529997</v>
       </c>
       <c r="G89" s="43">
-        <v>855591.58895700006</v>
+        <v>839497.87980600004</v>
       </c>
       <c r="H89" s="44">
-        <v>2444958.0237039998</v>
+        <v>2355351.1080339998</v>
       </c>
       <c r="I89" s="44">
-        <v>1174796.0124590001</v>
+        <v>1116544.828945</v>
       </c>
       <c r="J89" s="45">
-        <v>4475345.62512</v>
+        <v>4311393.8167850003</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4158,28 +4158,28 @@
         <v>151</v>
       </c>
       <c r="C90" s="47">
-        <v>1502593.7620620001</v>
+        <v>1515861.2527719999</v>
       </c>
       <c r="D90" s="48">
-        <v>6617306.3103670003</v>
+        <v>6668396.3571849996</v>
       </c>
       <c r="E90" s="48">
-        <v>4180260.9993699999</v>
+        <v>4213457.9097330002</v>
       </c>
       <c r="F90" s="49">
-        <v>12300161.071799001</v>
+        <v>12397715.51969</v>
       </c>
       <c r="G90" s="47">
-        <v>1433762.6232459999</v>
+        <v>1448248.0925960001</v>
       </c>
       <c r="H90" s="48">
-        <v>6501662.629489</v>
+        <v>6581348.5886049997</v>
       </c>
       <c r="I90" s="48">
-        <v>5152201.1363909999</v>
+        <v>5207118.0139340004</v>
       </c>
       <c r="J90" s="49">
-        <v>13087626.389126001</v>
+        <v>13236714.695134999</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -4278,28 +4278,28 @@
         <v>155</v>
       </c>
       <c r="C94" s="43">
-        <v>20074.922480000001</v>
+        <v>18286.687395000001</v>
       </c>
       <c r="D94" s="44">
-        <v>302278.47546500002</v>
+        <v>290198.90422899998</v>
       </c>
       <c r="E94" s="44">
-        <v>106585.497751</v>
+        <v>105489.00932300001</v>
       </c>
       <c r="F94" s="45">
-        <v>428938.89569600002</v>
+        <v>413974.60094700003</v>
       </c>
       <c r="G94" s="43">
-        <v>43069.574145999999</v>
+        <v>40252.535067999997</v>
       </c>
       <c r="H94" s="44">
-        <v>299086.35153599997</v>
+        <v>292166.44242199999</v>
       </c>
       <c r="I94" s="44">
-        <v>125712.83173400001</v>
+        <v>119966.863333</v>
       </c>
       <c r="J94" s="45">
-        <v>467868.75741600001</v>
+        <v>452385.84082300001</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -4368,28 +4368,28 @@
         <v>158</v>
       </c>
       <c r="C97" s="51">
-        <v>156325.02116800001</v>
+        <v>157198.79424799999</v>
       </c>
       <c r="D97" s="52">
-        <v>100649.85322</v>
+        <v>101755.561858</v>
       </c>
       <c r="E97" s="52">
-        <v>24268.370361000001</v>
+        <v>24326.603030999999</v>
       </c>
       <c r="F97" s="53">
-        <v>281243.244749</v>
+        <v>283280.95913700003</v>
       </c>
       <c r="G97" s="51">
-        <v>21135.147474000001</v>
+        <v>21273.189844</v>
       </c>
       <c r="H97" s="52">
-        <v>172936.93109599999</v>
+        <v>176202.64144499999</v>
       </c>
       <c r="I97" s="52">
-        <v>104556.05510300001</v>
+        <v>106074.482198</v>
       </c>
       <c r="J97" s="53">
-        <v>298628.13367299997</v>
+        <v>303550.31348700001</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4398,28 +4398,28 @@
         <v>159</v>
       </c>
       <c r="C98" s="47">
-        <v>111087.543261</v>
+        <v>116682.282012</v>
       </c>
       <c r="D98" s="48">
-        <v>67252.469305999999</v>
+        <v>68947.545180000001</v>
       </c>
       <c r="E98" s="48">
-        <v>113412.55750900001</v>
+        <v>113633.696684</v>
       </c>
       <c r="F98" s="49">
-        <v>291752.570076</v>
+        <v>299263.52387600002</v>
       </c>
       <c r="G98" s="47">
-        <v>44586.216565000002</v>
+        <v>44715.540176000002</v>
       </c>
       <c r="H98" s="48">
-        <v>244145.84121000001</v>
+        <v>246466.85517900001</v>
       </c>
       <c r="I98" s="48">
-        <v>113095.138247</v>
+        <v>114928.01353700001</v>
       </c>
       <c r="J98" s="49">
-        <v>401827.19602199999</v>
+        <v>406110.40889199998</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -4622,11 +4622,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{7C66D9F7-14C2-4C98-915D-36472C1A996B}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{620AC493-E20F-4F02-A2C5-8D78B5CC96B4}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{76BC981F-1AB5-4631-A4CC-B1B39DC93C65}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{EA9962A0-AAE3-4A02-A252-460E51AE3291}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{1901F199-C813-490E-BE4F-28CDA14364B1}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{4F90E111-4E4D-44CC-A74C-E2CFA345EB11}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A0202327-18C2-4A57-992A-A41A9373D0F7}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{13BE2DB6-CA36-41A6-9B9D-0A3C0FDA6B1E}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{42333283-B64A-4E73-938E-753A7213A73B}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{15AB93F2-C012-422E-BB7D-27FA9445EFF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab17.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91BCB0D1-D65D-4AD9-80BE-01FEE9204EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23D59771-14D2-497D-B19E-7D644E228D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{07AB41E9-4081-47A3-B656-D01F1EDD9521}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C3A48D87-F354-4C00-89F9-30125E938B04}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -1368,7 +1368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DDDAB4-64DB-4AD8-9663-1AB211689E44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479B3220-8A7C-4B13-B729-DD98E5292C62}">
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -4622,11 +4622,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{4F90E111-4E4D-44CC-A74C-E2CFA345EB11}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A0202327-18C2-4A57-992A-A41A9373D0F7}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{13BE2DB6-CA36-41A6-9B9D-0A3C0FDA6B1E}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{42333283-B64A-4E73-938E-753A7213A73B}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{15AB93F2-C012-422E-BB7D-27FA9445EFF6}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{DE04DE6F-5E62-4F5D-80B7-9C558C27A875}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{BEE7D7B0-3BE0-4546-AC62-1B572B07D18C}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{64DE6557-9C5B-470A-AC1D-433BC2DEBF6B}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{895F9AC6-AB4A-4416-9F81-68190E1BBA8F}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{5EFE4B5B-5F04-47E4-B05A-6AA069E28555}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab17.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23D59771-14D2-497D-B19E-7D644E228D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4B736B5-9BF0-4DBE-8095-39FA61299F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C3A48D87-F354-4C00-89F9-30125E938B04}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B999D33F-09FF-4C2D-B2E2-0E330EA0F7F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -1368,7 +1368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479B3220-8A7C-4B13-B729-DD98E5292C62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3938B6-46C8-43A0-B14E-E95538277751}">
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -4622,11 +4622,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{DE04DE6F-5E62-4F5D-80B7-9C558C27A875}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{BEE7D7B0-3BE0-4546-AC62-1B572B07D18C}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{64DE6557-9C5B-470A-AC1D-433BC2DEBF6B}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{895F9AC6-AB4A-4416-9F81-68190E1BBA8F}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{5EFE4B5B-5F04-47E4-B05A-6AA069E28555}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8E5CB10E-2AFA-44D8-9FC6-BFE4E6ABB799}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{9FF783C6-637A-4C56-BC2F-C9631CD11097}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{8A55CA72-CE53-47A7-B4C3-9977642106D8}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{D0F54B8B-04C7-41F1-B360-BEFF9AE68D64}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{675F7990-1DF0-44B9-AD6E-79F0D04AF188}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab17.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4B736B5-9BF0-4DBE-8095-39FA61299F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB4FA869-7971-4F6B-B2EA-90880CF62E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B999D33F-09FF-4C2D-B2E2-0E330EA0F7F2}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{06E20A40-42C6-43B1-A033-EDF9721459F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="172">
   <si>
     <t>Tableau 17 : Intensité du commerce dans l’industrie manufacturière</t>
   </si>
@@ -539,16 +539,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3938B6-46C8-43A0-B14E-E95538277751}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7022C723-C89B-4E96-BA0C-A6F213C25BCE}">
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -4548,7 +4551,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C109" s="56"/>
       <c r="D109" s="56"/>
@@ -4561,7 +4564,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C110" s="56"/>
       <c r="D110" s="56"/>
@@ -4573,7 +4576,9 @@
       <c r="J110" s="56"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="C111" s="56"/>
       <c r="D111" s="56"/>
       <c r="E111" s="56"/>
@@ -4585,7 +4590,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C112" s="56"/>
       <c r="D112" s="56"/>
@@ -4598,7 +4603,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C113" s="56"/>
       <c r="D113" s="56"/>
@@ -4622,13 +4627,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8E5CB10E-2AFA-44D8-9FC6-BFE4E6ABB799}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{9FF783C6-637A-4C56-BC2F-C9631CD11097}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{8A55CA72-CE53-47A7-B4C3-9977642106D8}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{D0F54B8B-04C7-41F1-B360-BEFF9AE68D64}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{675F7990-1DF0-44B9-AD6E-79F0D04AF188}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{34E28F06-4D31-4FE6-838C-E27D893FF156}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A2541FC1-117C-4658-B609-220B4279CD5E}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{A8AE88DD-F116-4F64-921B-7412CEAECBFC}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{B68E740A-EB58-4C95-A593-B3A45ED4E03B}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{3A6B3433-1BA2-4A14-A356-5FD9C3CE7A9E}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{182943A9-F5FD-4266-8B3E-80539EC6AF89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab17.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB4FA869-7971-4F6B-B2EA-90880CF62E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52330FF2-8C10-4617-A347-07944A5D2F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{06E20A40-42C6-43B1-A033-EDF9721459F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{5B4CC7A4-F04C-4638-9656-C0081FAEB56C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab17'!$A$1:$F$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1371,20 +1371,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7022C723-C89B-4E96-BA0C-A6F213C25BCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F60A75-D893-41FC-B408-7580F7C70811}">
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1397,7 +1397,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>11205.28649</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>7990.6591779999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>2170.8415450000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>1591.369596</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>1653.1023479999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>16702.659562000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>5960.5217360000097</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>96981.941962999903</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>7097.8276370000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>7385.9941950000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>31</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>158740.20425000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>1022.280429</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>7964.4682720000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>277.56379800000002</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>1085.5054520000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>3247.7754070000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>9364.2002699999903</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>857.27300500000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>2144.7755849999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>158.38347400000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>31</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>26122.225692</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>527.91727800000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>8272.7936960000006</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>56</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>329.21023100000002</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>11775.242333</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>60</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>23084.005832999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>62</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>4534.226326</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>5548.9581619999999</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>66</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>3560.3261619999998</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>68</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>1621.2805129999999</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>70</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>5075.7319729999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>72</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>869.73900100000003</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>74</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>8577.9962759999999</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>76</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>15120.818295999999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>78</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>5174.5743839999996</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>31</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>94072.820464000004</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>81</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>34286.908195999997</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>83</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>97777.059487999999</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>85</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>18294.146409000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>87</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>4720.7668590000003</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>89</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>56982.507082999997</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>91</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>23468.223204000002</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>31</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>235529.61123899999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>94</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>4922.1798140000001</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>96</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>4512.3983349999999</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>98</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>869.15821800000106</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>100</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>14000.528996999999</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>102</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>1862.9202250000001</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>104</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>20230.164387000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>106</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>5277.2781949999999</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>108</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>420.02794799999998</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>110</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>13241.146331</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>112</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>4559.5367429999997</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>114</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>2363.682581</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>116</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>61355.482190000097</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>118</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>14482.151903</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>120</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>1599.689149</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>122</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>13105.228426</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22"/>
       <c r="B61" s="23" t="s">
         <v>124</v>
@@ -3315,7 +3315,7 @@
         <v>162801.57344199999</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32"/>
       <c r="B62" s="33" t="s">
         <v>125</v>
@@ -3345,7 +3345,7 @@
         <v>677266.43508700002</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32"/>
       <c r="B63" s="37" t="s">
         <v>126</v>
@@ -3375,7 +3375,7 @@
         <v>19304852.737686999</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="41"/>
       <c r="B64" s="42" t="s">
         <v>127</v>
@@ -3405,7 +3405,7 @@
         <v>1193947.9059679999</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="41"/>
       <c r="B65" s="33" t="s">
         <v>128</v>
@@ -3435,7 +3435,7 @@
         <v>4178157.5532030002</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41"/>
       <c r="B66" s="46" t="s">
         <v>129</v>
@@ -3465,7 +3465,7 @@
         <v>19982119.172773998</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
       <c r="B67" s="50" t="s">
         <v>130</v>
@@ -3489,13 +3489,13 @@
         <v>139874.64110400001</v>
       </c>
       <c r="I67" s="52">
-        <v>75378.546306000106</v>
+        <v>75378.546306000004</v>
       </c>
       <c r="J67" s="53">
         <v>246315.938692</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="33" t="s">
         <v>131</v>
@@ -3525,7 +3525,7 @@
         <v>374080.69063999999</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="33" t="s">
         <v>132</v>
@@ -3555,7 +3555,7 @@
         <v>58195.944374999999</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="33" t="s">
         <v>133</v>
@@ -3585,7 +3585,7 @@
         <v>40887.838344000003</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>
       <c r="B71" s="33" t="s">
         <v>134</v>
@@ -3615,7 +3615,7 @@
         <v>162801.57344199999</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="33" t="s">
         <v>135</v>
@@ -3645,7 +3645,7 @@
         <v>63159.293726999997</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="41"/>
       <c r="B73" s="33" t="s">
         <v>136</v>
@@ -3675,7 +3675,7 @@
         <v>195457.60509500001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="41"/>
       <c r="B74" s="33" t="s">
         <v>136</v>
@@ -3705,7 +3705,7 @@
         <v>137752.55175099999</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41"/>
       <c r="B75" s="46" t="s">
         <v>137</v>
@@ -3735,7 +3735,7 @@
         <v>29355.515692000001</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="50" t="s">
         <v>138</v>
@@ -3765,7 +3765,7 @@
         <v>1618196.1189349999</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="41"/>
       <c r="B77" s="33" t="s">
         <v>139</v>
@@ -3795,7 +3795,7 @@
         <v>546450.27895099996</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="41"/>
       <c r="B78" s="33" t="s">
         <v>139</v>
@@ -3825,7 +3825,7 @@
         <v>6242296.4574140003</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41"/>
       <c r="B79" s="46" t="s">
         <v>140</v>
@@ -3855,7 +3855,7 @@
         <v>12863523.648220001</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
       <c r="B80" s="50" t="s">
         <v>141</v>
@@ -3885,7 +3885,7 @@
         <v>77581.334621999995</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="33" t="s">
         <v>142</v>
@@ -3915,7 +3915,7 @@
         <v>1051294.513366</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="41"/>
       <c r="B82" s="33" t="s">
         <v>143</v>
@@ -3945,7 +3945,7 @@
         <v>599685.10046500002</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41"/>
       <c r="B83" s="46" t="s">
         <v>144</v>
@@ -3975,7 +3975,7 @@
         <v>18253558.224321</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
       <c r="B84" s="50" t="s">
         <v>145</v>
@@ -4005,7 +4005,7 @@
         <v>124042.094115</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="33" t="s">
         <v>146</v>
@@ -4035,7 +4035,7 @@
         <v>22270.158804999999</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="33" t="s">
         <v>147</v>
@@ -4065,7 +4065,7 @@
         <v>413824.78442099999</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="33" t="s">
         <v>148</v>
@@ -4095,7 +4095,7 @@
         <v>1729044.7946309999</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="33" t="s">
         <v>149</v>
@@ -4125,7 +4125,7 @@
         <v>137778.27603800001</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="33" t="s">
         <v>150</v>
@@ -4155,7 +4155,7 @@
         <v>4311393.8167850003</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41"/>
       <c r="B90" s="46" t="s">
         <v>151</v>
@@ -4185,7 +4185,7 @@
         <v>13236714.695134999</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="50" t="s">
         <v>152</v>
@@ -4215,7 +4215,7 @@
         <v>185043.76152100001</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="33" t="s">
         <v>153</v>
@@ -4245,7 +4245,7 @@
         <v>189564.47966700001</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="33" t="s">
         <v>154</v>
@@ -4275,7 +4275,7 @@
         <v>9145.7255929999992</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="33" t="s">
         <v>155</v>
@@ -4305,7 +4305,7 @@
         <v>452385.84082300001</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="33" t="s">
         <v>156</v>
@@ -4335,7 +4335,7 @@
         <v>63090.643716999999</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41"/>
       <c r="B96" s="46" t="s">
         <v>157</v>
@@ -4365,67 +4365,67 @@
         <v>188109.97302100001</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="50" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="51">
-        <v>157198.79424799999</v>
+        <v>144193.31095099999</v>
       </c>
       <c r="D97" s="52">
-        <v>101755.561858</v>
+        <v>78305.983385</v>
       </c>
       <c r="E97" s="52">
-        <v>24326.603030999999</v>
+        <v>22463.926414000001</v>
       </c>
       <c r="F97" s="53">
-        <v>283280.95913700003</v>
+        <v>244963.22075000001</v>
       </c>
       <c r="G97" s="51">
-        <v>21273.189844</v>
+        <v>19017.378799999999</v>
       </c>
       <c r="H97" s="52">
-        <v>176202.64144499999</v>
+        <v>159093.021412</v>
       </c>
       <c r="I97" s="52">
-        <v>106074.482198</v>
+        <v>94732.637432999996</v>
       </c>
       <c r="J97" s="53">
-        <v>303550.31348700001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>272843.03764499997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41"/>
       <c r="B98" s="46" t="s">
         <v>159</v>
       </c>
       <c r="C98" s="47">
-        <v>116682.282012</v>
+        <v>40674.361312000001</v>
       </c>
       <c r="D98" s="48">
-        <v>68947.545180000001</v>
+        <v>59146.964883000001</v>
       </c>
       <c r="E98" s="48">
-        <v>113633.696684</v>
+        <v>112031.16651700001</v>
       </c>
       <c r="F98" s="49">
-        <v>299263.52387600002</v>
+        <v>211852.49271200001</v>
       </c>
       <c r="G98" s="47">
-        <v>44715.540176000002</v>
+        <v>39684.129846999997</v>
       </c>
       <c r="H98" s="48">
-        <v>246466.85517900001</v>
+        <v>203628.562393</v>
       </c>
       <c r="I98" s="48">
-        <v>114928.01353700001</v>
+        <v>84104.150620999993</v>
       </c>
       <c r="J98" s="49">
-        <v>406110.40889199998</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+        <v>327416.84286099998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="35"/>
@@ -4437,7 +4437,7 @@
       <c r="I99" s="35"/>
       <c r="J99" s="35"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>160</v>
       </c>
@@ -4450,7 +4450,7 @@
       <c r="I100" s="56"/>
       <c r="J100" s="56"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>161</v>
       </c>
@@ -4463,7 +4463,7 @@
       <c r="I101" s="56"/>
       <c r="J101" s="56"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>162</v>
       </c>
@@ -4476,7 +4476,7 @@
       <c r="I102" s="56"/>
       <c r="J102" s="56"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>163</v>
       </c>
@@ -4489,7 +4489,7 @@
       <c r="I103" s="56"/>
       <c r="J103" s="56"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>164</v>
       </c>
@@ -4502,7 +4502,7 @@
       <c r="I104" s="56"/>
       <c r="J104" s="56"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>165</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="I105" s="56"/>
       <c r="J105" s="56"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C106" s="56"/>
       <c r="D106" s="56"/>
       <c r="E106" s="56"/>
@@ -4525,7 +4525,7 @@
       <c r="I106" s="56"/>
       <c r="J106" s="56"/>
     </row>
-    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="57" t="s">
         <v>166</v>
       </c>
@@ -4538,7 +4538,7 @@
       <c r="I107" s="56"/>
       <c r="J107" s="56"/>
     </row>
-    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="57"/>
       <c r="C108" s="56"/>
       <c r="D108" s="56"/>
@@ -4549,7 +4549,7 @@
       <c r="I108" s="56"/>
       <c r="J108" s="56"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>169</v>
       </c>
@@ -4562,7 +4562,7 @@
       <c r="I109" s="56"/>
       <c r="J109" s="56"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>170</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="I110" s="56"/>
       <c r="J110" s="56"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>171</v>
       </c>
@@ -4588,7 +4588,7 @@
       <c r="I111" s="56"/>
       <c r="J111" s="56"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>167</v>
       </c>
@@ -4601,7 +4601,7 @@
       <c r="I112" s="56"/>
       <c r="J112" s="56"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>168</v>
       </c>
@@ -4614,7 +4614,7 @@
       <c r="I113" s="56"/>
       <c r="J113" s="56"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="56"/>
       <c r="D114" s="56"/>
@@ -4627,12 +4627,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{34E28F06-4D31-4FE6-838C-E27D893FF156}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A2541FC1-117C-4658-B609-220B4279CD5E}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{A8AE88DD-F116-4F64-921B-7412CEAECBFC}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{B68E740A-EB58-4C95-A593-B3A45ED4E03B}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{3A6B3433-1BA2-4A14-A356-5FD9C3CE7A9E}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{182943A9-F5FD-4266-8B3E-80539EC6AF89}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{0C2FAB7B-AC28-4308-AE3C-80FCD51FA406}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{476ACFEE-91B0-4417-BE55-FFCE2576591D}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{3BC00311-B20E-4C28-8F08-B91923A19B76}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{DE686BAB-7DEC-48A7-B334-25D96D48DBDA}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{5BDE1B70-F34B-4D8F-8363-A6BC42DD4DE4}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{0E23420B-171A-407E-89F2-BBF35183B651}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
